--- a/experiment_results/324527P1.xlsx
+++ b/experiment_results/324527P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1347"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking', 'Culinary Tours']</t>
+          <t>Category: ['Hiking', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking', 'Culinary Tours']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14796,7 +14796,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -15321,7 +15321,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15546,7 +15546,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P11</t>
+          <t>PRODUCTCODE: 5718P2</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Nation offers its 1.5 hour Austin Sightseeing and Capitol Segway Tour three times daily. Highlights of the tour include the Texas State Capitol Building and Congress Avenue.</t>
+          <t>Summarized description: This small-group tour (14 passenger max) is the one to do if you want a comprehensive look at what makes this city what it is. Possible stops (only two from this list)-TX State Cemetery, the Austin Central Library, and the Pfluger bridge.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Austin Sightseeing and Capitol Segway Tour</t>
+          <t xml:space="preserve">Title: Downtown Austin Small-Group Panoramic Sightseeing Tour </t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 216</t>
+          <t>TotalReviews: 78</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P12</t>
+          <t>PRODUCTCODE: 6462P3</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Nation offers its 2.5 hour Ghost and Bat Segway tour once daily. Bats are seasonal and usually fly from March to October every year. We visit some of Austin's haunted downtown hotels and buildings.</t>
+          <t>Summarized description: Segway tours include historical and cultural information about Austin. All groups start off with an orientation followed by one segway rider training. Choose from 3 departure times throughout the day, each one with a slightly different focus.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Austin Famous Ghost and Bat Segway Tour</t>
+          <t>Title: Austin Segway Tour</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 142</t>
+          <t>TotalReviews: 70</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462P3</t>
+          <t>PRODUCTCODE: 19328P6</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tours include historical and cultural information about Austin. All groups start off with an orientation followed by one segway rider training. Choose from 3 departure times throughout the day, each one with a slightly different focus.</t>
+          <t>Summarized description: The Weird Austin City Tour takes you on a tour of the Texas city. Find out how the city got its "weird" reputation. Take in live music, food trucks, and more.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Austin Segway Tour</t>
+          <t>Title: Weird Austin City Tour</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 70</t>
+          <t>TotalReviews: 56</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P16</t>
+          <t>PRODUCTCODE: 10428P20</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Nation Tour’s famous Capital City E-Scooter Tour begins on the West side of Austin. After cruising through downtown, your E- scooter adventure arrives at Lady Bird Lake.</t>
+          <t>Summarized description: The Fitzhugh district of the Texas Hill Country is 35-45 minutes southwest of Austin. Spend the afternoon sampling craft beer and spirits at three (3) of the best breweries and distilleries in the area.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: E-Scooter Tour of Austin</t>
+          <t>Title: Half-Day Hill Country Brewery and Distillery Shuttle from Austin</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P1</t>
+          <t>PRODUCTCODE: 199613P8</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: See the heart of Austin through a locals eyes on some of the finest urban bike trails in the country. Stop at some of Austin’s most famous landmarks: Barton Springs, the Stevie Ray Vaughan Statue, the Congress Avenue “Bat Bridge,” and more.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings or bottles to share (cost included!) at two top Texas Hill Country wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Austin E-Bike Tour</t>
+          <t>Title: Private Texas Hill Country Half-Day Wine Tour from Austin</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P4</t>
+          <t>PRODUCTCODE: 87115P27</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Our guides know where the best spots are and you will get to see a lot of Austin along the way. Let the guide know if there is a place you might have heard of and is on your bucket list to go to.</t>
+          <t>Summarized description: The Best of Austin Small Group Tour by See Sight Tours is a truly unique experience that showcases the best that Austin has to offer. With a maximum of only 7 guests per tour, you'll enjoy a personalized and intimate experience.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin E-Bike Brunch Tour </t>
+          <t>Title: Best of Austin Tour with State Capitol and Mt. Bonnell</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P27</t>
+          <t>PRODUCTCODE: 199613P1</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: The Best of Austin Small Group Tour by See Sight Tours is a truly unique experience that showcases the best that Austin has to offer. With a maximum of only 7 guests per tour, you'll enjoy a personalized and intimate experience.</t>
+          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Best of Austin Tour with State Capitol and Mt. Bonnell</t>
+          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 206329P1</t>
+          <t>PRODUCTCODE: 380918P1</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: The Austin Electric Adventure Tour takes you on an electric mini-bike tour of the city. The tour will explore South Congress, The "Willie for President" Mural, and the "i love you so much" mural.</t>
+          <t>Summarized description: Summit Mount Bonnell is the highest point in Austin, Texas. This tour will provide a city overview highlighting South Congress, the Seaholm Eco District, and the gorgeous surrounding hill country.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Austin Electric Minibike Adventure Tour</t>
+          <t>Title: Austin Half-day Sightseeing Tour</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P1</t>
+          <t>PRODUCTCODE: 10428P14</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
+          <t>Summarized description: Tours depart from the Austin Visitor Center (602 E 4th St) at 1:30PM and 3:00PM on Sundays in April and May. See the beautiful bluebonnets, firewheels, and Indian paintbrushes that the Lone Star State is known for.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
+          <t xml:space="preserve">Title: From Austin: Wine &amp; Wildflowers Tour in Texas Hill Country </t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P2</t>
+          <t>PRODUCTCODE: 10428P15</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Meet at our store located at 10910 Domain Drive, #106, Austin, Texas 78701. One at a time, you get to stand on the Segway and learn how to operate the controls.</t>
+          <t>Summarized description: October is Texas Wine Month. Take a luxury Mercedes Sprinter van to two different wineries for tastings. Tastings cost $15-20 each (not included).</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: The Ultimate Austin Segway Tour</t>
+          <t>Title: From Austin: Texas Wine Month Shuttle to Hill Country Wineries</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5920AUSTIN</t>
+          <t>PRODUCTCODE: 160210P1</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Stay on the bus for the whole route, or jump off and on at any of the six stops. The bus route starts at the Texas State Capitol three times a day at 2-hour intervals.</t>
+          <t>Summarized description: Hike to the top of Enchanted Rock in a state ran park where people have lived for 12,000 years. Eat a picnic lunch in the park after the hike or dine at one of the quaint restaurants in downtown Fredericksburg. Visit to historic downtown Frederick's known for quaint shops and Texas wine.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Austin Hop-On Hop-Off Tour</t>
+          <t>Title: Private, Luxury Hill Country Adventure to Enchanted Rock and Fredericksburg</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Hiking', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 421026P1</t>
+          <t>PRODUCTCODE: 25815P6</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Kasama Tastings is a women-owned and operated company based in Austin, TX. We host custom private tastings in-person and virtually for groups up to 15 people. Each guest can select their own type of tasting.</t>
+          <t>Summarized description: This tour is a short drive outside of Austin Texas. Get an insider's view of a working olive orchard. Topics include History of the Orchard, State of Texas Olive Industry, Farming Methods, Harvesting Practices.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Private Wine Tasting Experience in Austin</t>
+          <t>Title: Texas Hill Country Olive Orchard Walking Tour</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Workshops and Classes']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 338027P1</t>
+          <t>PRODUCTCODE: 199613P3</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Vibe with Tribe on Austin’s first and only open air party bus. Two hour private tour for groups of up to 20 people. Handpicked routes that take you to the best locations in Austin.</t>
+          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Roofless Party Bus Tour in Downtown Austin </t>
+          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 383052P1</t>
+          <t>PRODUCTCODE: 73370P11</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: All-inclusive Austin craft beer experience. Tour some of the most famous breweries in Austin. Revel in beer knowledge, a beer-inspired meal, comfortable transportation, and lots of delicious beer.</t>
+          <t>Summarized description: Customize your itinerary for a 2.5 hour Segway tour. We have your interests &amp; time constraints in mind. This is a private experience for only your group of friends/family.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Austin Original Half-Day Brewery Tour</t>
+          <t>Title: Private Segway Tour of Austin</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P6</t>
+          <t>PRODUCTCODE: 380918P6</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings (cost included!) at two Austin urban-wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+          <t>Summarized description: This tour stops at multiple locations for photos, such as the Greeting From Austin Mural. This tour is excellent for small groups that wish to get the best Austin sightseeing experience possible.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Austin Private Half-Day Wine Tour with Hotel Pickup</t>
+          <t>Title: Private Austin Sightseer Tour</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P5</t>
+          <t>PRODUCTCODE: 19328P1</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Tour Austin Weird in the best way possible. We have conducted safe tours for just over 14 years now in Austin, Texas. Meet us inside Paradise Smoothies at 10910 Domain Drive.</t>
+          <t>Summarized description: Cruise through some of Austin’s funkiest neighborhoods including South Congress. From start to finish, this local tour will make sure you leave Austin feeling like a native.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Austin Segway Tour</t>
+          <t>Title: Complete Austin Experience City Tour</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P1</t>
+          <t>PRODUCTCODE: 42365P6</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour offers one-on-one rider training and a friendly orientation. North Austin has a lot to offer, and Segway tours are a great way to explore.</t>
+          <t>Summarized description: This is the ONLY Revel Moped tour in the world! The ONLY tour in Austin that takes you to Mount Bonnell and its breath taking views of the city. Learn of the cultural standouts and what makes Austin such a rich and diverse city! All while being propelled on a Revel Electric Moped!</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Keep Austin Weird Segway Tour</t>
+          <t>Title: Revel Moped Tour Mt Bonnell and Neighborhoods of Austin</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 160210P1</t>
+          <t>PRODUCTCODE: 76036P73</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Hike to the top of Enchanted Rock in a state ran park where people have lived for 12,000 years. Eat a picnic lunch in the park after the hike or dine at one of the quaint restaurants in downtown Fredericksburg. Visit to historic downtown Frederick's known for quaint shops and Texas wine.</t>
+          <t>Summarized description: Lokafyers are not professional guides and tour occasionally. They provide an experience that’s authentic and personal. By the end of the tour, you'll feel comfortable navigating the city.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Private, Luxury Hill Country Adventure to Enchanted Rock and Fredericksburg</t>
+          <t>Title: Austin Like a Local: Customized Guided Tour</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25815P6</t>
+          <t>PRODUCTCODE: 5682AUSCITY</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: This tour is a short drive outside of Austin Texas. Get an insider's view of a working olive orchard. Topics include History of the Orchard, State of Texas Olive Industry, Farming Methods, Harvesting Practices.</t>
+          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Texas Hill Country Olive Orchard Walking Tour</t>
+          <t>Title: Austin Sightseeing Segway Tour</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P3</t>
+          <t>PRODUCTCODE: 74447P8</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
+          <t>Summarized description: Your ultimate Austin adventure consists of you riding a Segway and taking in historical information about Austin. Visit some amazing highlights and hotspots while on your Segway.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
+          <t>Title: Ultimate Segway Tour in Austin</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6468KAYAK</t>
+          <t>PRODUCTCODE: 356901P1</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Austin is home to the largest urban colony of bats in North America. Kayak to Congress Ave Bridge from Lady Bird Lake. Small-group tour limited to 15 people.</t>
+          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Bat Bridge Kayak Tour in Austin</t>
+          <t>Title: The Best of Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13625P8</t>
+          <t>PRODUCTCODE: 90519P13</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: 11 miles on Lady Bird Lake hike-n-bike trail / downtown Austin bikeway. Includes cycling around Barton Springs, Pfluger bike bridge, SRV statue, Congress Ave. Bat bridge.</t>
+          <t>Summarized description: Austin is home to a variety of world class breweries. Tour prices include a tasting at two or three locations. You are welcome to buy additional drinks and BYOB. Please drink responsibly.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Bikes and BBQ Tour in Austin</t>
+          <t>Title: Austin Hill Country Brewery Tour</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13625P1</t>
+          <t>PRODUCTCODE: 87115P25</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Urban / Natural combo bike tour of 7.5 miles. Get acquainted with Austin sights like the Congress Ave Bat Bridge, Texas Capitol, Shoal Creek hike-n-bike trail, Pfluger Ped/bike Bridge.</t>
+          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Check Out Austin: Capitol Bike Tour</t>
+          <t>Title: Guided Tour of Austin's Highlights</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P1</t>
+          <t>PRODUCTCODE: 11593P42</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise through some of Austin’s funkiest neighborhoods including South Congress. From start to finish, this local tour will make sure you leave Austin feeling like a native.</t>
+          <t>Summarized description: All-electric Cruizer is a small-group tour with a maximum of 7 people. See Hotel Van Zandt, Rainey Street, Texas State Cemetery, Franklin Barbecue. Choose from multiple departure times throughout the day.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Complete Austin Experience City Tour</t>
+          <t>Title: 2 Hours Austin Cruizer Tour</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P2</t>
+          <t>PRODUCTCODE: 214718P1</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Austin on an easy-to-operate e-bike on this city overview tour. Your guide will take about five breaks at unique locations for a quick photo. Pass by over 20 points of interest as you learn fun stories about the city.</t>
+          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Best of Austin Ebike Tour</t>
+          <t>Title: Austin Self-Guided Adventure Tour</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 439046P1</t>
+          <t>PRODUCTCODE: 214718P2</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Tour takes approximately 3-4 hours after which you will be dropped off back at your hotel. Alcohol is not included with the tour but can be purchased at all stops along the way.</t>
+          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Private Guided Food Tour of Austin Neighborhoods</t>
+          <t>Title: Austin Self-Guided Electric Adventure Tour</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P4</t>
+          <t>PRODUCTCODE: 87115P77</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
+          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: South Austin Food Tour</t>
+          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 178387P1</t>
+          <t>PRODUCTCODE: 260194P1</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour partially-guided tour on Lake Austin with spectacular views. Take this time to tour the scenic lake or enter one of the infamous party coves.</t>
+          <t>Summarized description: Tour the historic German settlement in the exquisite Texas Hill Country. Ride VIP on a Deluxe Motor Coach with reclining seats and extra legroom, perfect for napping.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Cruise Austin's Beautiful Lakes</t>
+          <t>Title: Fredericksburg Full-Day Guided Trip from Austin</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 153655P6</t>
+          <t>PRODUCTCODE: 90519P8</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Lake Austin offers 22 miles of great sightseeing views. Unique to Lake Austin is its clear, constant-level water and intimate setting. You may even catch sight of Austin's own professional wake surfing phenom Raleigh Hager.</t>
+          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Lake Austin Friends &amp; Family Boat Cruise - Group Option</t>
+          <t>Title: Austin Private Tour</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P4</t>
+          <t>PRODUCTCODE: 350454P3</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
+          <t>Summarized description: Discover authentic Austin with style in our cozy 5-passenger electric vehicle we fondly call the Groovy EV. Feel the city's pulse as we zip through vibrant streets and serene parks, comfortably shaded yet close to the action.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Historic Austin Segway Tour</t>
+          <t>Title: Groovy EV Ride Tour Along Texas</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 396944P1</t>
+          <t>PRODUCTCODE: 187190P2</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Lake Life Texas on Lake Austin is nicknamed “Little Venice '' with luxurious mansions. Enjoy life changing panoramic sunset views while cruising in style. This is a limited load charter, the group size for this charter is a maximum of eight guests.</t>
+          <t>Summarized description: Learn about Austin's history and culture with commentary from your guide. Tour the Texas State Capitol and visit other interesting locations. Check out some food trucks and other off-the-beaten-path sites.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: 90-Minute Date Night Sunset Cruise on Lake Austin</t>
+          <t>Title: Best Signseeing of Austin</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P18</t>
+          <t>PRODUCTCODE: 187194P2</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Get great shots in front of iconic Austin sites like the Capitol building, Greetings From Austin postcard mural, and more. Use our fun photos props to add a little extra flair to your shots.</t>
+          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Austin Street Art Photo Tour with Local Guide</t>
+          <t>Title: City Tour: Austin Capitol By Segway</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16592P5</t>
+          <t>PRODUCTCODE: 42365P5</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Austin has more than 250 live music venues and thousands of acts to fill them. Join a tour that explores the places that helped Austin make its name. Take in a local show and learn how the city evolved from the sleepy college town and capital of Texas.</t>
+          <t>Summarized description: This is the ONLY Revel Moped tour in the world! The ONLY tour in Austin that takes you to Mount Bonnell and its breath taking views of the city. Learn of the cultural standouts and what makes Austin such a rich and diverse city! All while being propelled on a Revel Electric Moped!</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Austin-Music Bicycle Tour</t>
+          <t>Title: Revel Moped Tour Mt Bonnell and Neighborhoods of Austin</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 57338P5</t>
+          <t>PRODUCTCODE: 24380P1626</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Electric minibikes will take you on a journey into Austin's craft beer scene. You will get to sample a curated menu of craft brews and learn a tasting technique.</t>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: The Austin Craft Brewery Adventure</t>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 208336P1</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18454,2256 +18454,6 @@
       <c r="H1197" t="inlineStr"/>
       <c r="I1197" t="inlineStr"/>
     </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>Summarized description: We have some of the hottest boats in Austin. Whether its your bachelor, or bachelorette party, or you just want to go for a cruise. We can accommodate any of your needs.</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr"/>
-      <c r="C1198" t="inlineStr"/>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
-      <c r="H1198" t="inlineStr"/>
-      <c r="I1198" t="inlineStr"/>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>Title: Nauti ATX Charters - Austin TX Boat Rental Company</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr"/>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
-      <c r="H1199" t="inlineStr"/>
-      <c r="I1199" t="inlineStr"/>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
-      <c r="I1200" t="inlineStr"/>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>Category: ['Water Sports']</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr"/>
-      <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
-      <c r="H1201" t="inlineStr"/>
-      <c r="I1201" t="inlineStr"/>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 348643P1</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr"/>
-      <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
-      <c r="H1202" t="inlineStr"/>
-      <c r="I1202" t="inlineStr"/>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>Summarized description: We are the company to get you out of Austin for the day! We take you on breathtaking views of the amazing Texas Hill Country. You will be guided by one of our very experienced hosts who will pick you up in the downtown Austin area.</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr"/>
-      <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr"/>
-      <c r="I1203" t="inlineStr"/>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>Title: Escape the day from Austin to Fredericksburg, Luchenbach</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
-      <c r="H1204" t="inlineStr"/>
-      <c r="I1204" t="inlineStr"/>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
-      <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
-      <c r="H1205" t="inlineStr"/>
-      <c r="I1205" t="inlineStr"/>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr"/>
-      <c r="I1206" t="inlineStr"/>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P7</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr"/>
-      <c r="C1207" t="inlineStr"/>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
-      <c r="H1207" t="inlineStr"/>
-      <c r="I1207" t="inlineStr"/>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>Summarized description: 90 minute Segway Sightseeing tour of North Austin. One-on-one rider training and orientation. See all that downtown Austin has to offer.</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr"/>
-      <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr"/>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
-      <c r="H1208" t="inlineStr"/>
-      <c r="I1208" t="inlineStr"/>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>Title: Austin Early Bird Segway Tour with a Local Guide</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr"/>
-      <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr"/>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
-      <c r="H1209" t="inlineStr"/>
-      <c r="I1209" t="inlineStr"/>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr"/>
-      <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr"/>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
-      <c r="H1210" t="inlineStr"/>
-      <c r="I1210" t="inlineStr"/>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr"/>
-      <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr"/>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
-      <c r="H1211" t="inlineStr"/>
-      <c r="I1211" t="inlineStr"/>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 76036P73</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr"/>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr"/>
-      <c r="I1212" t="inlineStr"/>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>Summarized description: Lokafyers are not professional guides and tour occasionally. They provide an experience that’s authentic and personal. By the end of the tour, you'll feel comfortable navigating the city.</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr"/>
-      <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
-      <c r="H1213" t="inlineStr"/>
-      <c r="I1213" t="inlineStr"/>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>Title: Austin Like a Local: Customized Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr"/>
-      <c r="C1214" t="inlineStr"/>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr"/>
-      <c r="I1214" t="inlineStr"/>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr"/>
-      <c r="C1215" t="inlineStr"/>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr"/>
-      <c r="I1215" t="inlineStr"/>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr"/>
-      <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr"/>
-      <c r="I1216" t="inlineStr"/>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 19103P1</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr"/>
-      <c r="C1217" t="inlineStr"/>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr"/>
-      <c r="I1217" t="inlineStr"/>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a trip back to Austin's sordid past with tales of tragedy, murder, and unexplainable mystery. This 90-minute segway tour will take you on a guided journey that visits the Capitol, the Driskill Hotel, and other spectacular haunts.</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr"/>
-      <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr"/>
-      <c r="I1218" t="inlineStr"/>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>Title: Austin Haunted Legends Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr"/>
-      <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr"/>
-      <c r="H1219" t="inlineStr"/>
-      <c r="I1219" t="inlineStr"/>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr"/>
-      <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr"/>
-      <c r="H1220" t="inlineStr"/>
-      <c r="I1220" t="inlineStr"/>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr"/>
-      <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
-      <c r="H1221" t="inlineStr"/>
-      <c r="I1221" t="inlineStr"/>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 121998P3</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr"/>
-      <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
-      <c r="H1222" t="inlineStr"/>
-      <c r="I1222" t="inlineStr"/>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin Rental Boats is the #1 Austin Boat Rental service on Lake Austin. Our Dual Party Boats can hold up to 32 passengers. The Lake Austin Party Cove is becoming one of the most popular spots in Austin and is an experience you don't want to miss.</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr"/>
-      <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
-      <c r="H1223" t="inlineStr"/>
-      <c r="I1223" t="inlineStr"/>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>Title: Private Lake Austin Boat Cruise - 2 Hour - Up to 15 ppl</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr"/>
-      <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
-      <c r="H1224" t="inlineStr"/>
-      <c r="I1224" t="inlineStr"/>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr"/>
-      <c r="C1225" t="inlineStr"/>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
-      <c r="H1225" t="inlineStr"/>
-      <c r="I1225" t="inlineStr"/>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>Category: ['Water Sports']</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr"/>
-      <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr"/>
-      <c r="I1226" t="inlineStr"/>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90519P2</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr"/>
-      <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr"/>
-      <c r="I1227" t="inlineStr"/>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>Summarized description: Tour Austin is the only tour company in Austin to offer hiking tours in Austin. This tour will explore the Hill of Life, Sculpture and Twin Falls.</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr"/>
-      <c r="C1228" t="inlineStr"/>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr"/>
-      <c r="I1228" t="inlineStr"/>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>Title: Hike Austin Greenbelt</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr"/>
-      <c r="C1229" t="inlineStr"/>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr"/>
-      <c r="H1229" t="inlineStr"/>
-      <c r="I1229" t="inlineStr"/>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr"/>
-      <c r="C1230" t="inlineStr"/>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr"/>
-      <c r="H1230" t="inlineStr"/>
-      <c r="I1230" t="inlineStr"/>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr"/>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr"/>
-      <c r="H1231" t="inlineStr"/>
-      <c r="I1231" t="inlineStr"/>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 13625P4</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr"/>
-      <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr"/>
-      <c r="H1232" t="inlineStr"/>
-      <c r="I1232" t="inlineStr"/>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>Summarized description: This 17 mile bike tour is catered for riders who want a good mix of nature, some flat street riding, more nature, then a stop for lunch and beer. This is a 3-hour tour in East Austin along parks, paved neighborhood streets with bike lanes, and the S. Walnut Creek Trail.</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr"/>
-      <c r="C1233" t="inlineStr"/>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr"/>
-      <c r="H1233" t="inlineStr"/>
-      <c r="I1233" t="inlineStr"/>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>Title: Walnut Creek Bike Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr"/>
-      <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr"/>
-      <c r="H1234" t="inlineStr"/>
-      <c r="I1234" t="inlineStr"/>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr"/>
-      <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr"/>
-      <c r="H1235" t="inlineStr"/>
-      <c r="I1235" t="inlineStr"/>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Hiking', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr"/>
-      <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr"/>
-      <c r="H1236" t="inlineStr"/>
-      <c r="I1236" t="inlineStr"/>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P8</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr"/>
-      <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-      <c r="H1237" t="inlineStr"/>
-      <c r="I1237" t="inlineStr"/>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>Summarized description: Your ultimate Austin adventure consists of you riding a Segway and taking in historical information about Austin. Visit some amazing highlights and hotspots while on your Segway.</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr"/>
-      <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr"/>
-      <c r="H1238" t="inlineStr"/>
-      <c r="I1238" t="inlineStr"/>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>Title: Ultimate Segway Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr"/>
-      <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr"/>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr"/>
-      <c r="H1239" t="inlineStr"/>
-      <c r="I1239" t="inlineStr"/>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr"/>
-      <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr"/>
-      <c r="I1240" t="inlineStr"/>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr"/>
-      <c r="C1241" t="inlineStr"/>
-      <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
-      <c r="H1241" t="inlineStr"/>
-      <c r="I1241" t="inlineStr"/>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P32</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr"/>
-      <c r="C1242" t="inlineStr"/>
-      <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr"/>
-      <c r="I1242" t="inlineStr"/>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the darker side of Austin with our haunted tour. We begin with centuries of history at the State Capitol and Governor's Mansion. Then, continue to local haunts like the world-famous Driskill Hotel.</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr"/>
-      <c r="C1243" t="inlineStr"/>
-      <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
-      <c r="H1243" t="inlineStr"/>
-      <c r="I1243" t="inlineStr"/>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>Title: Haunted Austin History Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr"/>
-      <c r="C1244" t="inlineStr"/>
-      <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
-      <c r="H1244" t="inlineStr"/>
-      <c r="I1244" t="inlineStr"/>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr"/>
-      <c r="C1245" t="inlineStr"/>
-      <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr"/>
-      <c r="H1245" t="inlineStr"/>
-      <c r="I1245" t="inlineStr"/>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr"/>
-      <c r="C1246" t="inlineStr"/>
-      <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr"/>
-      <c r="H1246" t="inlineStr"/>
-      <c r="I1246" t="inlineStr"/>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 356901P1</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr"/>
-      <c r="C1247" t="inlineStr"/>
-      <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr"/>
-      <c r="H1247" t="inlineStr"/>
-      <c r="I1247" t="inlineStr"/>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr"/>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr"/>
-      <c r="H1248" t="inlineStr"/>
-      <c r="I1248" t="inlineStr"/>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>Title: The Best of Austin Private Walking Tour</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr"/>
-      <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr"/>
-      <c r="H1249" t="inlineStr"/>
-      <c r="I1249" t="inlineStr"/>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr"/>
-      <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr"/>
-      <c r="H1250" t="inlineStr"/>
-      <c r="I1250" t="inlineStr"/>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr"/>
-      <c r="C1251" t="inlineStr"/>
-      <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr"/>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr"/>
-      <c r="H1251" t="inlineStr"/>
-      <c r="I1251" t="inlineStr"/>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90519P19</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr"/>
-      <c r="C1252" t="inlineStr"/>
-      <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr"/>
-      <c r="H1252" t="inlineStr"/>
-      <c r="I1252" t="inlineStr"/>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin is home to more than a dozen unique holiday decor installations. Our vehicles will transport you to each location and our guides will help you capture the perfect the photos at each one.</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr"/>
-      <c r="C1253" t="inlineStr"/>
-      <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
-      <c r="H1253" t="inlineStr"/>
-      <c r="I1253" t="inlineStr"/>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>Title: Austin Holiday Lights Tour</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr"/>
-      <c r="C1254" t="inlineStr"/>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr"/>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr"/>
-      <c r="H1254" t="inlineStr"/>
-      <c r="I1254" t="inlineStr"/>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr"/>
-      <c r="C1255" t="inlineStr"/>
-      <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr"/>
-      <c r="H1255" t="inlineStr"/>
-      <c r="I1255" t="inlineStr"/>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr"/>
-      <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
-      <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr"/>
-      <c r="H1256" t="inlineStr"/>
-      <c r="I1256" t="inlineStr"/>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P11</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr"/>
-      <c r="C1257" t="inlineStr"/>
-      <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr"/>
-      <c r="H1257" t="inlineStr"/>
-      <c r="I1257" t="inlineStr"/>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>Summarized description: Segway tour provides a unique experience to travelers and locals alike because of the use of Segway technology. Tour guide provides you with historical explanations, and an introduction to Texas culture.</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr"/>
-      <c r="C1258" t="inlineStr"/>
-      <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr"/>
-      <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr"/>
-      <c r="H1258" t="inlineStr"/>
-      <c r="I1258" t="inlineStr"/>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>Title: Segway Bat Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr"/>
-      <c r="C1259" t="inlineStr"/>
-      <c r="D1259" t="inlineStr"/>
-      <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr"/>
-      <c r="H1259" t="inlineStr"/>
-      <c r="I1259" t="inlineStr"/>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr"/>
-      <c r="C1260" t="inlineStr"/>
-      <c r="D1260" t="inlineStr"/>
-      <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr"/>
-      <c r="H1260" t="inlineStr"/>
-      <c r="I1260" t="inlineStr"/>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr"/>
-      <c r="C1261" t="inlineStr"/>
-      <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
-      <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr"/>
-      <c r="H1261" t="inlineStr"/>
-      <c r="I1261" t="inlineStr"/>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 369084P1</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr"/>
-      <c r="C1262" t="inlineStr"/>
-      <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr"/>
-      <c r="I1262" t="inlineStr"/>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>Summarized description: This tour is perfect for girlfriends, bachelorettes, and bachelors who love to shop, have some drinks, and get awesome discounts. You will walk your way down Austin's South Congress shopping district on a 2+ hour guided walking tour. You'll get complimentary wine/cocktails throughout the tour and exclusive discounts 10-15% off.</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr"/>
-      <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr"/>
-      <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
-      <c r="H1263" t="inlineStr"/>
-      <c r="I1263" t="inlineStr"/>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>Title:  South Congress Austin Shopping Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr"/>
-      <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr"/>
-      <c r="H1264" t="inlineStr"/>
-      <c r="I1264" t="inlineStr"/>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr"/>
-      <c r="C1265" t="inlineStr"/>
-      <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr"/>
-      <c r="I1265" t="inlineStr"/>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>Category: ['Shopping and Fashion']</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr"/>
-      <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr"/>
-      <c r="I1266" t="inlineStr"/>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90519P13</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr"/>
-      <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr"/>
-      <c r="H1267" t="inlineStr"/>
-      <c r="I1267" t="inlineStr"/>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin is home to a variety of world class breweries. Tour prices include a tasting at two or three locations. You are welcome to buy additional drinks and BYOB. Please drink responsibly.</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr"/>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr"/>
-      <c r="I1268" t="inlineStr"/>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>Title: Austin Hill Country Brewery Tour</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr"/>
-      <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr"/>
-      <c r="I1269" t="inlineStr"/>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr"/>
-      <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr"/>
-      <c r="I1270" t="inlineStr"/>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr"/>
-      <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr"/>
-      <c r="I1271" t="inlineStr"/>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 87115P25</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr"/>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr"/>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr"/>
-      <c r="I1272" t="inlineStr"/>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr"/>
-      <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr"/>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr"/>
-      <c r="I1273" t="inlineStr"/>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>Title: Guided Tour of Austin's Highlights</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr"/>
-      <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr"/>
-      <c r="I1274" t="inlineStr"/>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr"/>
-      <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr"/>
-      <c r="I1275" t="inlineStr"/>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr"/>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr"/>
-      <c r="I1276" t="inlineStr"/>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 214718P1</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr"/>
-      <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
-      <c r="H1277" t="inlineStr"/>
-      <c r="I1277" t="inlineStr"/>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr"/>
-      <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr"/>
-      <c r="I1278" t="inlineStr"/>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="inlineStr">
-        <is>
-          <t>Title: Austin Self-Guided Adventure Tour</t>
-        </is>
-      </c>
-      <c r="B1279" t="inlineStr"/>
-      <c r="C1279" t="inlineStr"/>
-      <c r="D1279" t="inlineStr"/>
-      <c r="E1279" t="inlineStr"/>
-      <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr"/>
-      <c r="I1279" t="inlineStr"/>
-    </row>
-    <row r="1280">
-      <c r="A1280" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1280" t="inlineStr"/>
-      <c r="C1280" t="inlineStr"/>
-      <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr"/>
-      <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr"/>
-      <c r="H1280" t="inlineStr"/>
-      <c r="I1280" t="inlineStr"/>
-    </row>
-    <row r="1281">
-      <c r="A1281" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1281" t="inlineStr"/>
-      <c r="C1281" t="inlineStr"/>
-      <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr"/>
-      <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr"/>
-      <c r="I1281" t="inlineStr"/>
-    </row>
-    <row r="1282">
-      <c r="A1282" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 214718P2</t>
-        </is>
-      </c>
-      <c r="B1282" t="inlineStr"/>
-      <c r="C1282" t="inlineStr"/>
-      <c r="D1282" t="inlineStr"/>
-      <c r="E1282" t="inlineStr"/>
-      <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr"/>
-      <c r="I1282" t="inlineStr"/>
-    </row>
-    <row r="1283">
-      <c r="A1283" t="inlineStr">
-        <is>
-          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
-        </is>
-      </c>
-      <c r="B1283" t="inlineStr"/>
-      <c r="C1283" t="inlineStr"/>
-      <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr"/>
-      <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr"/>
-      <c r="I1283" t="inlineStr"/>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="inlineStr">
-        <is>
-          <t>Title: Austin Self-Guided Electric Adventure Tour</t>
-        </is>
-      </c>
-      <c r="B1284" t="inlineStr"/>
-      <c r="C1284" t="inlineStr"/>
-      <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
-      <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr"/>
-      <c r="I1284" t="inlineStr"/>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1285" t="inlineStr"/>
-      <c r="C1285" t="inlineStr"/>
-      <c r="D1285" t="inlineStr"/>
-      <c r="E1285" t="inlineStr"/>
-      <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr"/>
-      <c r="I1285" t="inlineStr"/>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1286" t="inlineStr"/>
-      <c r="C1286" t="inlineStr"/>
-      <c r="D1286" t="inlineStr"/>
-      <c r="E1286" t="inlineStr"/>
-      <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr"/>
-      <c r="I1286" t="inlineStr"/>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 212799P6</t>
-        </is>
-      </c>
-      <c r="B1287" t="inlineStr"/>
-      <c r="C1287" t="inlineStr"/>
-      <c r="D1287" t="inlineStr"/>
-      <c r="E1287" t="inlineStr"/>
-      <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr"/>
-      <c r="I1287" t="inlineStr"/>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin has more live music venues per capita than any other city in the nation. Learn more about how Austin earned the title of Live Music Capital of the World.</t>
-        </is>
-      </c>
-      <c r="B1288" t="inlineStr"/>
-      <c r="C1288" t="inlineStr"/>
-      <c r="D1288" t="inlineStr"/>
-      <c r="E1288" t="inlineStr"/>
-      <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr"/>
-      <c r="I1288" t="inlineStr"/>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>Title: Tipster Pay-What-You-Want Austin Music Walking Tour</t>
-        </is>
-      </c>
-      <c r="B1289" t="inlineStr"/>
-      <c r="C1289" t="inlineStr"/>
-      <c r="D1289" t="inlineStr"/>
-      <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr"/>
-      <c r="I1289" t="inlineStr"/>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr"/>
-      <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr"/>
-      <c r="I1290" t="inlineStr"/>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
-        <is>
-          <t>Category: ['Performing Arts']</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr"/>
-      <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr"/>
-      <c r="E1291" t="inlineStr"/>
-      <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr"/>
-      <c r="I1291" t="inlineStr"/>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90519P8</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr"/>
-      <c r="C1292" t="inlineStr"/>
-      <c r="D1292" t="inlineStr"/>
-      <c r="E1292" t="inlineStr"/>
-      <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr"/>
-      <c r="I1292" t="inlineStr"/>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr"/>
-      <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr"/>
-      <c r="E1293" t="inlineStr"/>
-      <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr"/>
-      <c r="H1293" t="inlineStr"/>
-      <c r="I1293" t="inlineStr"/>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>Title: Austin Private Tour</t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr"/>
-      <c r="C1294" t="inlineStr"/>
-      <c r="D1294" t="inlineStr"/>
-      <c r="E1294" t="inlineStr"/>
-      <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr"/>
-      <c r="H1294" t="inlineStr"/>
-      <c r="I1294" t="inlineStr"/>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1295" t="inlineStr"/>
-      <c r="C1295" t="inlineStr"/>
-      <c r="D1295" t="inlineStr"/>
-      <c r="E1295" t="inlineStr"/>
-      <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr"/>
-      <c r="H1295" t="inlineStr"/>
-      <c r="I1295" t="inlineStr"/>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Hiking', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1296" t="inlineStr"/>
-      <c r="C1296" t="inlineStr"/>
-      <c r="D1296" t="inlineStr"/>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
-      <c r="G1296" t="inlineStr"/>
-      <c r="H1296" t="inlineStr"/>
-      <c r="I1296" t="inlineStr"/>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5663LAKE</t>
-        </is>
-      </c>
-      <c r="B1297" t="inlineStr"/>
-      <c r="C1297" t="inlineStr"/>
-      <c r="D1297" t="inlineStr"/>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr"/>
-      <c r="H1297" t="inlineStr"/>
-      <c r="I1297" t="inlineStr"/>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
-        <is>
-          <t>Summarized description: Electric bikes are a fun, comfortable, safe way to sightsee in Austin. Follow your guide to the lake’s main landmarks including Barton Springs and the Stevie Ray Vaughn Statue.</t>
-        </is>
-      </c>
-      <c r="B1298" t="inlineStr"/>
-      <c r="C1298" t="inlineStr"/>
-      <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
-      <c r="G1298" t="inlineStr"/>
-      <c r="H1298" t="inlineStr"/>
-      <c r="I1298" t="inlineStr"/>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>Title: Electric Bike Tour of Lady Bird Lake in Austin</t>
-        </is>
-      </c>
-      <c r="B1299" t="inlineStr"/>
-      <c r="C1299" t="inlineStr"/>
-      <c r="D1299" t="inlineStr"/>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr"/>
-      <c r="H1299" t="inlineStr"/>
-      <c r="I1299" t="inlineStr"/>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1300" t="inlineStr"/>
-      <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr"/>
-      <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr"/>
-      <c r="H1300" t="inlineStr"/>
-      <c r="I1300" t="inlineStr"/>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr"/>
-      <c r="C1301" t="inlineStr"/>
-      <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr"/>
-      <c r="H1301" t="inlineStr"/>
-      <c r="I1301" t="inlineStr"/>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 186429P1</t>
-        </is>
-      </c>
-      <c r="B1302" t="inlineStr"/>
-      <c r="C1302" t="inlineStr"/>
-      <c r="D1302" t="inlineStr"/>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr"/>
-      <c r="I1302" t="inlineStr"/>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>Summarized description: The 2.5-hour Segway tour is offered from March to October. See the Texas State Capitol Building, Lady Bird Lake, Austin Convention Center, and more. Hear the ghostly tales behind Austin's historic buildings and famous landmarks.</t>
-        </is>
-      </c>
-      <c r="B1303" t="inlineStr"/>
-      <c r="C1303" t="inlineStr"/>
-      <c r="D1303" t="inlineStr"/>
-      <c r="E1303" t="inlineStr"/>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr"/>
-      <c r="I1303" t="inlineStr"/>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
-        <is>
-          <t>Title: Our Austin's Ghost and Bat By Segwaying</t>
-        </is>
-      </c>
-      <c r="B1304" t="inlineStr"/>
-      <c r="C1304" t="inlineStr"/>
-      <c r="D1304" t="inlineStr"/>
-      <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr"/>
-      <c r="I1304" t="inlineStr"/>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1305" t="inlineStr"/>
-      <c r="C1305" t="inlineStr"/>
-      <c r="D1305" t="inlineStr"/>
-      <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
-      <c r="H1305" t="inlineStr"/>
-      <c r="I1305" t="inlineStr"/>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1306" t="inlineStr"/>
-      <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr"/>
-      <c r="I1306" t="inlineStr"/>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 180366P2</t>
-        </is>
-      </c>
-      <c r="B1307" t="inlineStr"/>
-      <c r="C1307" t="inlineStr"/>
-      <c r="D1307" t="inlineStr"/>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr"/>
-      <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr"/>
-      <c r="I1307" t="inlineStr"/>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin, Texas, prides itself on its weirdness. On this tour, you'll encounter the weird of the paranormal sort. Along the way, you can sample spirits of the drinking kind. Alcohol is not included in the price of the tour.</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr"/>
-      <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr"/>
-      <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr"/>
-      <c r="H1308" t="inlineStr"/>
-      <c r="I1308" t="inlineStr"/>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>Title: Austin Boos and Booze Haunted Pub Crawl</t>
-        </is>
-      </c>
-      <c r="B1309" t="inlineStr"/>
-      <c r="C1309" t="inlineStr"/>
-      <c r="D1309" t="inlineStr"/>
-      <c r="E1309" t="inlineStr"/>
-      <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr"/>
-      <c r="H1309" t="inlineStr"/>
-      <c r="I1309" t="inlineStr"/>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1310" t="inlineStr"/>
-      <c r="C1310" t="inlineStr"/>
-      <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr"/>
-      <c r="H1310" t="inlineStr"/>
-      <c r="I1310" t="inlineStr"/>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1311" t="inlineStr"/>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr"/>
-      <c r="H1311" t="inlineStr"/>
-      <c r="I1311" t="inlineStr"/>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 63511P668</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr"/>
-      <c r="C1312" t="inlineStr"/>
-      <c r="D1312" t="inlineStr"/>
-      <c r="E1312" t="inlineStr"/>
-      <c r="F1312" t="inlineStr"/>
-      <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr"/>
-      <c r="I1312" t="inlineStr"/>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>Summarized description: We are the largest network of local vacation photographers in the world. Besides Austin, we operate in over 700 destinations worldwide. We always make sure that every special moment of each client is captured well. We offer a 100% money back satisfaction guarantee for your photo shoot.</t>
-        </is>
-      </c>
-      <c r="B1313" t="inlineStr"/>
-      <c r="C1313" t="inlineStr"/>
-      <c r="D1313" t="inlineStr"/>
-      <c r="E1313" t="inlineStr"/>
-      <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr"/>
-      <c r="I1313" t="inlineStr"/>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>Title: Private Photo Session with a Local Photographer in Austin</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr"/>
-      <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr"/>
-      <c r="E1314" t="inlineStr"/>
-      <c r="F1314" t="inlineStr"/>
-      <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr"/>
-      <c r="I1314" t="inlineStr"/>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr"/>
-      <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr"/>
-      <c r="E1315" t="inlineStr"/>
-      <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr"/>
-      <c r="I1315" t="inlineStr"/>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>Category: ['']</t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr"/>
-      <c r="C1316" t="inlineStr"/>
-      <c r="D1316" t="inlineStr"/>
-      <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr"/>
-      <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr"/>
-      <c r="I1316" t="inlineStr"/>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 402244P1</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr"/>
-      <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr"/>
-      <c r="I1317" t="inlineStr"/>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a tour of some of Austin's most iconic sights and landmarks. Led by an experienced local photographer, this personalized walk takes you through some of the city's most famous sights.</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr"/>
-      <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr"/>
-      <c r="I1318" t="inlineStr"/>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>Title: Photo Activity in Austin with Portrait Photographer</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr"/>
-      <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr"/>
-      <c r="E1319" t="inlineStr"/>
-      <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr"/>
-      <c r="I1319" t="inlineStr"/>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr"/>
-      <c r="C1320" t="inlineStr"/>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr"/>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr"/>
-      <c r="H1320" t="inlineStr"/>
-      <c r="I1320" t="inlineStr"/>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr"/>
-      <c r="C1321" t="inlineStr"/>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr"/>
-      <c r="H1321" t="inlineStr"/>
-      <c r="I1321" t="inlineStr"/>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 291969P4</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr"/>
-      <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr"/>
-      <c r="H1322" t="inlineStr"/>
-      <c r="I1322" t="inlineStr"/>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>Summarized description: Experience Austin from beautiful Lady Bird Lake. Take a guided tour of the city, historical Barton Springs, and natural all from the heart of downtown Austin.</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr"/>
-      <c r="C1323" t="inlineStr"/>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
-      <c r="G1323" t="inlineStr"/>
-      <c r="H1323" t="inlineStr"/>
-      <c r="I1323" t="inlineStr"/>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>Title: Guided Downtown Austin Kayak Tour</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr"/>
-      <c r="C1324" t="inlineStr"/>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr"/>
-      <c r="I1324" t="inlineStr"/>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr"/>
-      <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr"/>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr"/>
-      <c r="I1325" t="inlineStr"/>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr"/>
-      <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr"/>
-      <c r="I1326" t="inlineStr"/>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P4</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr"/>
-      <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr"/>
-      <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr"/>
-      <c r="I1327" t="inlineStr"/>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>Summarized description: Glide alongside Austin's beautiful Lady Bird Lake on this 90-minute segway tour. You'll see locals jogging, some enthusiastic kayakers, and interesting birds.</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr"/>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr"/>
-      <c r="E1328" t="inlineStr"/>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr"/>
-      <c r="I1328" t="inlineStr"/>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>Title: Lady Bird Lake Segway Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr"/>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr"/>
-      <c r="I1329" t="inlineStr"/>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr"/>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr"/>
-      <c r="I1330" t="inlineStr"/>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr"/>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr"/>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr"/>
-      <c r="I1331" t="inlineStr"/>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 134057P6</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr"/>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr"/>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr"/>
-      <c r="I1332" t="inlineStr"/>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin is bursting with music during SXSW. Over 2,000 different acts performing at more than 300 official parties, clubs, and events. Take a BikeTexas tour to experience all the excitement of SXSW at a fraction of the cost.</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr"/>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr"/>
-      <c r="I1333" t="inlineStr"/>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
-        <is>
-          <t>Title: Austin SXSW E-Bike Tour</t>
-        </is>
-      </c>
-      <c r="B1334" t="inlineStr"/>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr"/>
-      <c r="E1334" t="inlineStr"/>
-      <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr"/>
-      <c r="I1334" t="inlineStr"/>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1335" t="inlineStr"/>
-      <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr"/>
-      <c r="E1335" t="inlineStr"/>
-      <c r="F1335" t="inlineStr"/>
-      <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr"/>
-      <c r="I1335" t="inlineStr"/>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1336" t="inlineStr"/>
-      <c r="C1336" t="inlineStr"/>
-      <c r="D1336" t="inlineStr"/>
-      <c r="E1336" t="inlineStr"/>
-      <c r="F1336" t="inlineStr"/>
-      <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr"/>
-      <c r="I1336" t="inlineStr"/>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 24380P1626</t>
-        </is>
-      </c>
-      <c r="B1337" t="inlineStr"/>
-      <c r="C1337" t="inlineStr"/>
-      <c r="D1337" t="inlineStr"/>
-      <c r="E1337" t="inlineStr"/>
-      <c r="F1337" t="inlineStr"/>
-      <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr"/>
-      <c r="I1337" t="inlineStr"/>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
-        </is>
-      </c>
-      <c r="B1338" t="inlineStr"/>
-      <c r="C1338" t="inlineStr"/>
-      <c r="D1338" t="inlineStr"/>
-      <c r="E1338" t="inlineStr"/>
-      <c r="F1338" t="inlineStr"/>
-      <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr"/>
-      <c r="I1338" t="inlineStr"/>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
-        </is>
-      </c>
-      <c r="B1339" t="inlineStr"/>
-      <c r="C1339" t="inlineStr"/>
-      <c r="D1339" t="inlineStr"/>
-      <c r="E1339" t="inlineStr"/>
-      <c r="F1339" t="inlineStr"/>
-      <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr"/>
-      <c r="I1339" t="inlineStr"/>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1340" t="inlineStr"/>
-      <c r="C1340" t="inlineStr"/>
-      <c r="D1340" t="inlineStr"/>
-      <c r="E1340" t="inlineStr"/>
-      <c r="F1340" t="inlineStr"/>
-      <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr"/>
-      <c r="I1340" t="inlineStr"/>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1341" t="inlineStr"/>
-      <c r="C1341" t="inlineStr"/>
-      <c r="D1341" t="inlineStr"/>
-      <c r="E1341" t="inlineStr"/>
-      <c r="F1341" t="inlineStr"/>
-      <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr"/>
-      <c r="I1341" t="inlineStr"/>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 46479P14</t>
-        </is>
-      </c>
-      <c r="B1342" t="inlineStr"/>
-      <c r="C1342" t="inlineStr"/>
-      <c r="D1342" t="inlineStr"/>
-      <c r="E1342" t="inlineStr"/>
-      <c r="F1342" t="inlineStr"/>
-      <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr"/>
-      <c r="I1342" t="inlineStr"/>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>Summarized description: This 4 hour excursion takes you along the Austin Skyline all the way down to Barton Creek. You'll hear the fascinating stories and personal anecdotes behind each locations unique history. Enjoy a delicious lunch with us while on the waterfront!</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr"/>
-      <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr"/>
-      <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr"/>
-      <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr"/>
-      <c r="I1343" t="inlineStr"/>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t>Title: Full-Day Austin Skyline Kayak and Swimming Hole Tour</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr"/>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr"/>
-      <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr"/>
-      <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr"/>
-      <c r="I1344" t="inlineStr"/>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr"/>
-      <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr"/>
-      <c r="E1345" t="inlineStr"/>
-      <c r="F1345" t="inlineStr"/>
-      <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr"/>
-      <c r="I1345" t="inlineStr"/>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr"/>
-      <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr"/>
-      <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr"/>
-      <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr"/>
-      <c r="I1346" t="inlineStr"/>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr"/>
-      <c r="C1347" t="inlineStr"/>
-      <c r="D1347" t="inlineStr"/>
-      <c r="E1347" t="inlineStr"/>
-      <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr"/>
-      <c r="I1347" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/324527P1.xlsx
+++ b/experiment_results/324527P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14796,7 +14796,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -15246,7 +15246,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Team Sports']</t>
+          <t>Category: ['Team Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15321,7 +15321,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15546,7 +15546,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462P3</t>
+          <t>PRODUCTCODE: 19328P6</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tours include historical and cultural information about Austin. All groups start off with an orientation followed by one segway rider training. Choose from 3 departure times throughout the day, each one with a slightly different focus.</t>
+          <t>Summarized description: The Weird Austin City Tour takes you on a tour of the Texas city. Find out how the city got its "weird" reputation. Take in live music, food trucks, and more.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Austin Segway Tour</t>
+          <t>Title: Weird Austin City Tour</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 70</t>
+          <t>TotalReviews: 56</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P6</t>
+          <t>PRODUCTCODE: 17570P6</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: The Weird Austin City Tour takes you on a tour of the Texas city. Find out how the city got its "weird" reputation. Take in live music, food trucks, and more.</t>
+          <t>Summarized description: Learn about Texas cowboys and the great cattle drives of the 1800s. Step back in time at the Lyndon B. Johnson State Park &amp; Historic Site. Pass by award-winning wineries &amp; orchards, before visiting Fredericksburg, a historic &amp; picturesque German town.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Weird Austin City Tour</t>
+          <t>Title: Texas Hill Country and LBJ Tour From Austin</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 56</t>
+          <t>TotalReviews: 41</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17570P6</t>
+          <t>PRODUCTCODE: 10428P20</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Texas cowboys and the great cattle drives of the 1800s. Step back in time at the Lyndon B. Johnson State Park &amp; Historic Site. Pass by award-winning wineries &amp; orchards, before visiting Fredericksburg, a historic &amp; picturesque German town.</t>
+          <t>Summarized description: The Fitzhugh district of the Texas Hill Country is 35-45 minutes southwest of Austin. Spend the afternoon sampling craft beer and spirits at three (3) of the best breweries and distilleries in the area.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Texas Hill Country and LBJ Tour From Austin</t>
+          <t>Title: Half-Day Hill Country Brewery and Distillery Shuttle from Austin</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 41</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P20</t>
+          <t>PRODUCTCODE: 199613P8</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: The Fitzhugh district of the Texas Hill Country is 35-45 minutes southwest of Austin. Spend the afternoon sampling craft beer and spirits at three (3) of the best breweries and distilleries in the area.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings or bottles to share (cost included!) at two top Texas Hill Country wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Half-Day Hill Country Brewery and Distillery Shuttle from Austin</t>
+          <t>Title: Private Texas Hill Country Half-Day Wine Tour from Austin</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P8</t>
+          <t>PRODUCTCODE: 87115P27</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings or bottles to share (cost included!) at two top Texas Hill Country wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+          <t>Summarized description: The Best of Austin Small Group Tour by See Sight Tours is a truly unique experience that showcases the best that Austin has to offer. With a maximum of only 7 guests per tour, you'll enjoy a personalized and intimate experience.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Private Texas Hill Country Half-Day Wine Tour from Austin</t>
+          <t>Title: Best of Austin Tour with State Capitol and Mt. Bonnell</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 18</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P27</t>
+          <t>PRODUCTCODE: 199613P1</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: The Best of Austin Small Group Tour by See Sight Tours is a truly unique experience that showcases the best that Austin has to offer. With a maximum of only 7 guests per tour, you'll enjoy a personalized and intimate experience.</t>
+          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Best of Austin Tour with State Capitol and Mt. Bonnell</t>
+          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P1</t>
+          <t>PRODUCTCODE: 380918P1</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
+          <t>Summarized description: Summit Mount Bonnell is the highest point in Austin, Texas. This tour will provide a city overview highlighting South Congress, the Seaholm Eco District, and the gorgeous surrounding hill country.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
+          <t>Title: Austin Half-day Sightseeing Tour</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P1</t>
+          <t>PRODUCTCODE: 10428P14</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Summit Mount Bonnell is the highest point in Austin, Texas. This tour will provide a city overview highlighting South Congress, the Seaholm Eco District, and the gorgeous surrounding hill country.</t>
+          <t>Summarized description: Tours depart from the Austin Visitor Center (602 E 4th St) at 1:30PM and 3:00PM on Sundays in April and May. See the beautiful bluebonnets, firewheels, and Indian paintbrushes that the Lone Star State is known for.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Austin Half-day Sightseeing Tour</t>
+          <t xml:space="preserve">Title: From Austin: Wine &amp; Wildflowers Tour in Texas Hill Country </t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P14</t>
+          <t>PRODUCTCODE: 10428P15</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Tours depart from the Austin Visitor Center (602 E 4th St) at 1:30PM and 3:00PM on Sundays in April and May. See the beautiful bluebonnets, firewheels, and Indian paintbrushes that the Lone Star State is known for.</t>
+          <t>Summarized description: October is Texas Wine Month. Take a luxury Mercedes Sprinter van to two different wineries for tastings. Tastings cost $15-20 each (not included).</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: From Austin: Wine &amp; Wildflowers Tour in Texas Hill Country </t>
+          <t>Title: From Austin: Texas Wine Month Shuttle to Hill Country Wineries</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P15</t>
+          <t>PRODUCTCODE: 160210P1</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: October is Texas Wine Month. Take a luxury Mercedes Sprinter van to two different wineries for tastings. Tastings cost $15-20 each (not included).</t>
+          <t>Summarized description: Hike to the top of Enchanted Rock in a state ran park where people have lived for 12,000 years. Eat a picnic lunch in the park after the hike or dine at one of the quaint restaurants in downtown Fredericksburg. Visit to historic downtown Frederick's known for quaint shops and Texas wine.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: From Austin: Texas Wine Month Shuttle to Hill Country Wineries</t>
+          <t>Title: Private, Luxury Hill Country Adventure to Enchanted Rock and Fredericksburg</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 160210P1</t>
+          <t>PRODUCTCODE: 25815P6</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Hike to the top of Enchanted Rock in a state ran park where people have lived for 12,000 years. Eat a picnic lunch in the park after the hike or dine at one of the quaint restaurants in downtown Fredericksburg. Visit to historic downtown Frederick's known for quaint shops and Texas wine.</t>
+          <t>Summarized description: This tour is a short drive outside of Austin Texas. Get an insider's view of a working olive orchard. Topics include History of the Orchard, State of Texas Olive Industry, Farming Methods, Harvesting Practices.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Private, Luxury Hill Country Adventure to Enchanted Rock and Fredericksburg</t>
+          <t>Title: Texas Hill Country Olive Orchard Walking Tour</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25815P6</t>
+          <t>PRODUCTCODE: 199613P3</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: This tour is a short drive outside of Austin Texas. Get an insider's view of a working olive orchard. Topics include History of the Orchard, State of Texas Olive Industry, Farming Methods, Harvesting Practices.</t>
+          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Texas Hill Country Olive Orchard Walking Tour</t>
+          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P3</t>
+          <t>PRODUCTCODE: 73370P11</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
+          <t>Summarized description: Customize your itinerary for a 2.5 hour Segway tour. We have your interests &amp; time constraints in mind. This is a private experience for only your group of friends/family.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
+          <t>Title: Private Segway Tour of Austin</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P11</t>
+          <t>PRODUCTCODE: 51066P2</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Customize your itinerary for a 2.5 hour Segway tour. We have your interests &amp; time constraints in mind. This is a private experience for only your group of friends/family.</t>
+          <t>Summarized description: Glance of Austin City Tour is a 3-hour tour of downtown Austin. Take an open-air electric shuttle from your hotel/accommodation to the tour site.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Private Segway Tour of Austin</t>
+          <t>Title: Glance of Austin City Tour</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSCITY</t>
+          <t>PRODUCTCODE: 87115P58</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
+          <t>Summarized description: Mozart’s Coffee Roasters was the first in-house coffee roaster in Austin, TX over 25 years ago. Mount Bonnell is considered to be the highest point in Austin.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Austin Sightseeing Segway Tour</t>
+          <t>Title:  Guided Austin Hillside Oasis Lakeview Tour</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P8</t>
+          <t>PRODUCTCODE: 90519P13</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Your ultimate Austin adventure consists of you riding a Segway and taking in historical information about Austin. Visit some amazing highlights and hotspots while on your Segway.</t>
+          <t>Summarized description: Austin is home to a variety of world class breweries. Tour prices include a tasting at two or three locations. You are welcome to buy additional drinks and BYOB. Please drink responsibly.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Ultimate Segway Tour in Austin</t>
+          <t>Title: Austin Hill Country Brewery Tour</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 356901P1</t>
+          <t>PRODUCTCODE: 87115P25</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
+          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: The Best of Austin Private Walking Tour</t>
+          <t>Title: Guided Tour of Austin's Highlights</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P13</t>
+          <t>PRODUCTCODE: 11593P42</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Austin is home to a variety of world class breweries. Tour prices include a tasting at two or three locations. You are welcome to buy additional drinks and BYOB. Please drink responsibly.</t>
+          <t>Summarized description: All-electric Cruizer is a small-group tour with a maximum of 7 people. See Hotel Van Zandt, Rainey Street, Texas State Cemetery, Franklin Barbecue. Choose from multiple departure times throughout the day.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Austin Hill Country Brewery Tour</t>
+          <t>Title: 2 Hours Austin Cruizer Tour</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P25</t>
+          <t>PRODUCTCODE: 214718P1</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
+          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Guided Tour of Austin's Highlights</t>
+          <t>Title: Austin Self-Guided Adventure Tour</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11593P42</t>
+          <t>PRODUCTCODE: 214718P2</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: All-electric Cruizer is a small-group tour with a maximum of 7 people. See Hotel Van Zandt, Rainey Street, Texas State Cemetery, Franklin Barbecue. Choose from multiple departure times throughout the day.</t>
+          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: 2 Hours Austin Cruizer Tour</t>
+          <t>Title: Austin Self-Guided Electric Adventure Tour</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 214718P1</t>
+          <t>PRODUCTCODE: 87115P77</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
+          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Austin Self-Guided Adventure Tour</t>
+          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 214718P2</t>
+          <t>PRODUCTCODE: 260194P1</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
+          <t>Summarized description: Tour the historic German settlement in the exquisite Texas Hill Country. Ride VIP on a Deluxe Motor Coach with reclining seats and extra legroom, perfect for napping.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Austin Self-Guided Electric Adventure Tour</t>
+          <t>Title: Fredericksburg Full-Day Guided Trip from Austin</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P77</t>
+          <t>PRODUCTCODE: 90519P8</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
+          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
+          <t>Title: Austin Private Tour</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 260194P1</t>
+          <t>PRODUCTCODE: 350454P3</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Tour the historic German settlement in the exquisite Texas Hill Country. Ride VIP on a Deluxe Motor Coach with reclining seats and extra legroom, perfect for napping.</t>
+          <t>Summarized description: Discover authentic Austin with style in our cozy 5-passenger electric vehicle we fondly call the Groovy EV. Feel the city's pulse as we zip through vibrant streets and serene parks, comfortably shaded yet close to the action.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Fredericksburg Full-Day Guided Trip from Austin</t>
+          <t>Title: Groovy EV Ride Tour Along Texas</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P8</t>
+          <t>PRODUCTCODE: 187190P2</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
+          <t>Summarized description: Learn about Austin's history and culture with commentary from your guide. Tour the Texas State Capitol and visit other interesting locations. Check out some food trucks and other off-the-beaten-path sites.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Austin Private Tour</t>
+          <t>Title: Best Signseeing of Austin</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 350454P3</t>
+          <t>PRODUCTCODE: 187194P2</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Discover authentic Austin with style in our cozy 5-passenger electric vehicle we fondly call the Groovy EV. Feel the city's pulse as we zip through vibrant streets and serene parks, comfortably shaded yet close to the action.</t>
+          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Groovy EV Ride Tour Along Texas</t>
+          <t>Title: City Tour: Austin Capitol By Segway</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 187190P2</t>
+          <t>PRODUCTCODE: 42365P5</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Austin's history and culture with commentary from your guide. Tour the Texas State Capitol and visit other interesting locations. Check out some food trucks and other off-the-beaten-path sites.</t>
+          <t>Summarized description: This is the ONLY Revel Moped tour in the world! The ONLY tour in Austin that takes you to Mount Bonnell and its breath taking views of the city. Learn of the cultural standouts and what makes Austin such a rich and diverse city! All while being propelled on a Revel Electric Moped!</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Best Signseeing of Austin</t>
+          <t>Title: Revel Moped Tour Mt Bonnell and Neighborhoods of Austin</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 187194P2</t>
+          <t>PRODUCTCODE: 24380P1626</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: City Tour: Austin Capitol By Segway</t>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42365P5</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18304,156 +18304,6 @@
       <c r="H1187" t="inlineStr"/>
       <c r="I1187" t="inlineStr"/>
     </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>Summarized description: This is the ONLY Revel Moped tour in the world! The ONLY tour in Austin that takes you to Mount Bonnell and its breath taking views of the city. Learn of the cultural standouts and what makes Austin such a rich and diverse city! All while being propelled on a Revel Electric Moped!</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr"/>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
-      <c r="H1188" t="inlineStr"/>
-      <c r="I1188" t="inlineStr"/>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>Title: Revel Moped Tour Mt Bonnell and Neighborhoods of Austin</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
-      <c r="H1189" t="inlineStr"/>
-      <c r="I1189" t="inlineStr"/>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr"/>
-      <c r="C1190" t="inlineStr"/>
-      <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr"/>
-      <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr"/>
-      <c r="H1190" t="inlineStr"/>
-      <c r="I1190" t="inlineStr"/>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr"/>
-      <c r="C1191" t="inlineStr"/>
-      <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
-      <c r="H1191" t="inlineStr"/>
-      <c r="I1191" t="inlineStr"/>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 24380P1626</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr"/>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
-      <c r="H1192" t="inlineStr"/>
-      <c r="I1192" t="inlineStr"/>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr"/>
-      <c r="C1193" t="inlineStr"/>
-      <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
-      <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr"/>
-      <c r="H1193" t="inlineStr"/>
-      <c r="I1193" t="inlineStr"/>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr"/>
-      <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr"/>
-      <c r="H1194" t="inlineStr"/>
-      <c r="I1194" t="inlineStr"/>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr"/>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
-      <c r="H1195" t="inlineStr"/>
-      <c r="I1195" t="inlineStr"/>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr"/>
-      <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
-      <c r="H1196" t="inlineStr"/>
-      <c r="I1196" t="inlineStr"/>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
-      <c r="I1197" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/324527P1.xlsx
+++ b/experiment_results/324527P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'City Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14796,7 +14796,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14871,7 +14871,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15246,7 +15246,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Category: ['Team Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Team Sports']</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5718P2</t>
+          <t>PRODUCTCODE: 24851P4</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: This small-group tour (14 passenger max) is the one to do if you want a comprehensive look at what makes this city what it is. Possible stops (only two from this list)-TX State Cemetery, the Austin Central Library, and the Pfluger bridge.</t>
+          <t>Summarized description: Tour guides will take you on a fun and informative tour of Austin in an open air pedicab. Great for couples, friends and families of all ages. The tour moves at your own pace and is individually tailored to your group.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Downtown Austin Small-Group Panoramic Sightseeing Tour </t>
+          <t>Title: Historic Austin Private Pedicab Tour</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 78</t>
+          <t>TotalReviews: 130</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P6</t>
+          <t>PRODUCTCODE: 5718P2</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: The Weird Austin City Tour takes you on a tour of the Texas city. Find out how the city got its "weird" reputation. Take in live music, food trucks, and more.</t>
+          <t>Summarized description: This small-group tour (14 passenger max) is the one to do if you want a comprehensive look at what makes this city what it is. Possible stops (only two from this list)-TX State Cemetery, the Austin Central Library, and the Pfluger bridge.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Weird Austin City Tour</t>
+          <t xml:space="preserve">Title: Downtown Austin Small-Group Panoramic Sightseeing Tour </t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 56</t>
+          <t>TotalReviews: 78</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P1</t>
+          <t>PRODUCTCODE: 338027P1</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Summit Mount Bonnell is the highest point in Austin, Texas. This tour will provide a city overview highlighting South Congress, the Seaholm Eco District, and the gorgeous surrounding hill country.</t>
+          <t>Summarized description: Vibe with Tribe on Austin’s first and only open air party bus. Two hour private tour for groups of up to 20 people. Handpicked routes that take you to the best locations in Austin.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Austin Half-day Sightseeing Tour</t>
+          <t xml:space="preserve">Title: Roofless Party Bus Tour in Downtown Austin </t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P14</t>
+          <t>PRODUCTCODE: 380918P1</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Tours depart from the Austin Visitor Center (602 E 4th St) at 1:30PM and 3:00PM on Sundays in April and May. See the beautiful bluebonnets, firewheels, and Indian paintbrushes that the Lone Star State is known for.</t>
+          <t>Summarized description: Summit Mount Bonnell is the highest point in Austin, Texas. This tour will provide a city overview highlighting South Congress, the Seaholm Eco District, and the gorgeous surrounding hill country.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: From Austin: Wine &amp; Wildflowers Tour in Texas Hill Country </t>
+          <t>Title: Austin Half-day Sightseeing Tour</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P15</t>
+          <t>PRODUCTCODE: 10428P14</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: October is Texas Wine Month. Take a luxury Mercedes Sprinter van to two different wineries for tastings. Tastings cost $15-20 each (not included).</t>
+          <t>Summarized description: Tours depart from the Austin Visitor Center (602 E 4th St) at 1:30PM and 3:00PM on Sundays in April and May. See the beautiful bluebonnets, firewheels, and Indian paintbrushes that the Lone Star State is known for.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: From Austin: Texas Wine Month Shuttle to Hill Country Wineries</t>
+          <t xml:space="preserve">Title: From Austin: Wine &amp; Wildflowers Tour in Texas Hill Country </t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 160210P1</t>
+          <t>PRODUCTCODE: 10428P15</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Hike to the top of Enchanted Rock in a state ran park where people have lived for 12,000 years. Eat a picnic lunch in the park after the hike or dine at one of the quaint restaurants in downtown Fredericksburg. Visit to historic downtown Frederick's known for quaint shops and Texas wine.</t>
+          <t>Summarized description: October is Texas Wine Month. Take a luxury Mercedes Sprinter van to two different wineries for tastings. Tastings cost $15-20 each (not included).</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Private, Luxury Hill Country Adventure to Enchanted Rock and Fredericksburg</t>
+          <t>Title: From Austin: Texas Wine Month Shuttle to Hill Country Wineries</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Hiking']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25815P6</t>
+          <t>PRODUCTCODE: 160210P1</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: This tour is a short drive outside of Austin Texas. Get an insider's view of a working olive orchard. Topics include History of the Orchard, State of Texas Olive Industry, Farming Methods, Harvesting Practices.</t>
+          <t>Summarized description: Hike to the top of Enchanted Rock in a state ran park where people have lived for 12,000 years. Eat a picnic lunch in the park after the hike or dine at one of the quaint restaurants in downtown Fredericksburg. Visit to historic downtown Frederick's known for quaint shops and Texas wine.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Texas Hill Country Olive Orchard Walking Tour</t>
+          <t>Title: Private, Luxury Hill Country Adventure to Enchanted Rock and Fredericksburg</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P3</t>
+          <t>PRODUCTCODE: 278147P2</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
+          <t>Summarized description: Lake Austin is home to celebrity homes, one of the best party coves in Texas, as well as the iconic Pennybacker bridge. Our Lake Austin Charter boat service picks up customers at the iconic 360-bridge boat ramp, which is a short 15-minute drive from downtown Austin.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
+          <t>Title: Half Day Lake Austin Boat Tour</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P11</t>
+          <t>PRODUCTCODE: 199613P3</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Customize your itinerary for a 2.5 hour Segway tour. We have your interests &amp; time constraints in mind. This is a private experience for only your group of friends/family.</t>
+          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Private Segway Tour of Austin</t>
+          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P2</t>
+          <t>PRODUCTCODE: 104585P1</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Glance of Austin City Tour is a 3-hour tour of downtown Austin. Take an open-air electric shuttle from your hotel/accommodation to the tour site.</t>
+          <t>Summarized description: This bike route has tons of great photo points, and hits most of Austin's must see sights. Some stops will include Barton springs, Stevie Ray Vaughn statue, our Capitol, and more. We will also have the opportunity to visit one of our oldest bbq joints.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Glance of Austin City Tour</t>
+          <t>Title: Bike Austin &amp; Texas BBQ Tour</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P6</t>
+          <t>PRODUCTCODE: 73370P11</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: This tour stops at multiple locations for photos, such as the Greeting From Austin Mural. This tour is excellent for small groups that wish to get the best Austin sightseeing experience possible.</t>
+          <t>Summarized description: Customize your itinerary for a 2.5 hour Segway tour. We have your interests &amp; time constraints in mind. This is a private experience for only your group of friends/family.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Private Austin Sightseer Tour</t>
+          <t>Title: Private Segway Tour of Austin</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P1</t>
+          <t>PRODUCTCODE: 380918P6</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise through some of Austin’s funkiest neighborhoods including South Congress. From start to finish, this local tour will make sure you leave Austin feeling like a native.</t>
+          <t>Summarized description: This tour stops at multiple locations for photos, such as the Greeting From Austin Mural. This tour is excellent for small groups that wish to get the best Austin sightseeing experience possible.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Complete Austin Experience City Tour</t>
+          <t>Title: Private Austin Sightseer Tour</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42365P6</t>
+          <t>PRODUCTCODE: 19328P1</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: This is the ONLY Revel Moped tour in the world! The ONLY tour in Austin that takes you to Mount Bonnell and its breath taking views of the city. Learn of the cultural standouts and what makes Austin such a rich and diverse city! All while being propelled on a Revel Electric Moped!</t>
+          <t>Summarized description: Cruise through some of Austin’s funkiest neighborhoods including South Congress. From start to finish, this local tour will make sure you leave Austin feeling like a native.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Revel Moped Tour Mt Bonnell and Neighborhoods of Austin</t>
+          <t>Title: Complete Austin Experience City Tour</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76036P73</t>
+          <t>PRODUCTCODE: 406074P5</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Lokafyers are not professional guides and tour occasionally. They provide an experience that’s authentic and personal. By the end of the tour, you'll feel comfortable navigating the city.</t>
+          <t>Summarized description: This is a private tubing experience for groups of 10-15 people. We are the only company that offers tubing in Downtown Austin. Highlights are watching the bridge jumpers and rope swingers and ending at Party Island.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Austin Like a Local: Customized Guided Tour</t>
+          <t xml:space="preserve">Title: Go Tubing in Austin's Downtown Spring River </t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Water Sports']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P58</t>
+          <t>PRODUCTCODE: 153655P6</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Mozart’s Coffee Roasters was the first in-house coffee roaster in Austin, TX over 25 years ago. Mount Bonnell is considered to be the highest point in Austin.</t>
+          <t>Summarized description: Lake Austin offers 22 miles of great sightseeing views. Unique to Lake Austin is its clear, constant-level water and intimate setting. You may even catch sight of Austin's own professional wake surfing phenom Raleigh Hager.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title:  Guided Austin Hillside Oasis Lakeview Tour</t>
+          <t>Title: Lake Austin Friends &amp; Family Boat Cruise - Group Option</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P13</t>
+          <t>PRODUCTCODE: 348643P1</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Austin is home to a variety of world class breweries. Tour prices include a tasting at two or three locations. You are welcome to buy additional drinks and BYOB. Please drink responsibly.</t>
+          <t>Summarized description: We are the company to get you out of Austin for the day! We take you on breathtaking views of the amazing Texas Hill Country. You will be guided by one of our very experienced hosts who will pick you up in the downtown Austin area.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Austin Hill Country Brewery Tour</t>
+          <t>Title: Escape the day from Austin to Fredericksburg, Luchenbach</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P25</t>
+          <t>PRODUCTCODE: 76036P73</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
+          <t>Summarized description: Lokafyers are not professional guides and tour occasionally. They provide an experience that’s authentic and personal. By the end of the tour, you'll feel comfortable navigating the city.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Guided Tour of Austin's Highlights</t>
+          <t>Title: Austin Like a Local: Customized Guided Tour</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11593P42</t>
+          <t>PRODUCTCODE: 5682AUSCITY</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: All-electric Cruizer is a small-group tour with a maximum of 7 people. See Hotel Van Zandt, Rainey Street, Texas State Cemetery, Franklin Barbecue. Choose from multiple departure times throughout the day.</t>
+          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: 2 Hours Austin Cruizer Tour</t>
+          <t>Title: Austin Sightseeing Segway Tour</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 214718P1</t>
+          <t>PRODUCTCODE: 74447P8</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
+          <t>Summarized description: Your ultimate Austin adventure consists of you riding a Segway and taking in historical information about Austin. Visit some amazing highlights and hotspots while on your Segway.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Austin Self-Guided Adventure Tour</t>
+          <t>Title: Ultimate Segway Tour in Austin</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 214718P2</t>
+          <t>PRODUCTCODE: 356901P1</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
+          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Austin Self-Guided Electric Adventure Tour</t>
+          <t>Title: The Best of Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P77</t>
+          <t>PRODUCTCODE: 396944P2</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
+          <t>Summarized description: This 2hr tour was designed for our clients wanting to experience Austin, Tx in a different way, not breaking the bank. See what fifty million dollar summer homes, sycamore trees, cypress trees and the Pennybacker Bridge all have in common.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
+          <t>Title: 2hr Boat Tour up to 10 on Lake Austin with Captain</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 260194P1</t>
+          <t>PRODUCTCODE: 90519P13</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Tour the historic German settlement in the exquisite Texas Hill Country. Ride VIP on a Deluxe Motor Coach with reclining seats and extra legroom, perfect for napping.</t>
+          <t>Summarized description: Austin is home to a variety of world class breweries. Tour prices include a tasting at two or three locations. You are welcome to buy additional drinks and BYOB. Please drink responsibly.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Fredericksburg Full-Day Guided Trip from Austin</t>
+          <t>Title: Austin Hill Country Brewery Tour</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P8</t>
+          <t>PRODUCTCODE: 87115P25</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
+          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Austin Private Tour</t>
+          <t>Title: Guided Tour of Austin's Highlights</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 350454P3</t>
+          <t>PRODUCTCODE: 11593P42</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Discover authentic Austin with style in our cozy 5-passenger electric vehicle we fondly call the Groovy EV. Feel the city's pulse as we zip through vibrant streets and serene parks, comfortably shaded yet close to the action.</t>
+          <t>Summarized description: All-electric Cruizer is a small-group tour with a maximum of 7 people. See Hotel Van Zandt, Rainey Street, Texas State Cemetery, Franklin Barbecue. Choose from multiple departure times throughout the day.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Groovy EV Ride Tour Along Texas</t>
+          <t>Title: 2 Hours Austin Cruizer Tour</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 187190P2</t>
+          <t>PRODUCTCODE: 87115P77</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Austin's history and culture with commentary from your guide. Tour the Texas State Capitol and visit other interesting locations. Check out some food trucks and other off-the-beaten-path sites.</t>
+          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Best Signseeing of Austin</t>
+          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 187194P2</t>
+          <t>PRODUCTCODE: 260194P1</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
+          <t>Summarized description: Tour the historic German settlement in the exquisite Texas Hill Country. Ride VIP on a Deluxe Motor Coach with reclining seats and extra legroom, perfect for napping.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: City Tour: Austin Capitol By Segway</t>
+          <t>Title: Fredericksburg Full-Day Guided Trip from Austin</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42365P5</t>
+          <t>PRODUCTCODE: 90519P8</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: This is the ONLY Revel Moped tour in the world! The ONLY tour in Austin that takes you to Mount Bonnell and its breath taking views of the city. Learn of the cultural standouts and what makes Austin such a rich and diverse city! All while being propelled on a Revel Electric Moped!</t>
+          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Revel Moped Tour Mt Bonnell and Neighborhoods of Austin</t>
+          <t>Title: Austin Private Tour</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Hiking', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1626</t>
+          <t>PRODUCTCODE: 327690P4</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
+          <t>Summarized description: Includes pickup in Austin or surrounding area and 3 hours including drive times there and back. All of our Sprinter Limo's have large panoramic windows and Christmas colored lights on the interior and underglow underneath.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
+          <t>Title: Peppermint Parkway Christmas Lights Tour Austin</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 187190P2</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18304,6 +18304,231 @@
       <c r="H1187" t="inlineStr"/>
       <c r="I1187" t="inlineStr"/>
     </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>Summarized description: Learn about Austin's history and culture with commentary from your guide. Tour the Texas State Capitol and visit other interesting locations. Check out some food trucks and other off-the-beaten-path sites.</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr"/>
+      <c r="C1188" t="inlineStr"/>
+      <c r="D1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr"/>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr"/>
+      <c r="H1188" t="inlineStr"/>
+      <c r="I1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>Title: Best Signseeing of Austin</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr"/>
+      <c r="C1189" t="inlineStr"/>
+      <c r="D1189" t="inlineStr"/>
+      <c r="E1189" t="inlineStr"/>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr"/>
+      <c r="H1189" t="inlineStr"/>
+      <c r="I1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr"/>
+      <c r="C1190" t="inlineStr"/>
+      <c r="D1190" t="inlineStr"/>
+      <c r="E1190" t="inlineStr"/>
+      <c r="F1190" t="inlineStr"/>
+      <c r="G1190" t="inlineStr"/>
+      <c r="H1190" t="inlineStr"/>
+      <c r="I1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr"/>
+      <c r="C1191" t="inlineStr"/>
+      <c r="D1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr"/>
+      <c r="F1191" t="inlineStr"/>
+      <c r="G1191" t="inlineStr"/>
+      <c r="H1191" t="inlineStr"/>
+      <c r="I1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 187194P2</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr"/>
+      <c r="C1192" t="inlineStr"/>
+      <c r="D1192" t="inlineStr"/>
+      <c r="E1192" t="inlineStr"/>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="inlineStr"/>
+      <c r="H1192" t="inlineStr"/>
+      <c r="I1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr"/>
+      <c r="C1193" t="inlineStr"/>
+      <c r="D1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr"/>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="inlineStr"/>
+      <c r="H1193" t="inlineStr"/>
+      <c r="I1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>Title: City Tour: Austin Capitol By Segway</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr"/>
+      <c r="C1194" t="inlineStr"/>
+      <c r="D1194" t="inlineStr"/>
+      <c r="E1194" t="inlineStr"/>
+      <c r="F1194" t="inlineStr"/>
+      <c r="G1194" t="inlineStr"/>
+      <c r="H1194" t="inlineStr"/>
+      <c r="I1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr"/>
+      <c r="C1195" t="inlineStr"/>
+      <c r="D1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr"/>
+      <c r="F1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr"/>
+      <c r="H1195" t="inlineStr"/>
+      <c r="I1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>Category: ['Entertainment', 'Historical Tours', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr"/>
+      <c r="C1196" t="inlineStr"/>
+      <c r="D1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr"/>
+      <c r="F1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr"/>
+      <c r="H1196" t="inlineStr"/>
+      <c r="I1196" t="inlineStr"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 24380P1626</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr"/>
+      <c r="C1197" t="inlineStr"/>
+      <c r="D1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr"/>
+      <c r="F1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr"/>
+      <c r="H1197" t="inlineStr"/>
+      <c r="I1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr"/>
+      <c r="C1198" t="inlineStr"/>
+      <c r="D1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr"/>
+      <c r="F1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr"/>
+      <c r="H1198" t="inlineStr"/>
+      <c r="I1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr"/>
+      <c r="C1199" t="inlineStr"/>
+      <c r="D1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr"/>
+      <c r="F1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr"/>
+      <c r="H1199" t="inlineStr"/>
+      <c r="I1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr"/>
+      <c r="C1200" t="inlineStr"/>
+      <c r="D1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr"/>
+      <c r="F1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr"/>
+      <c r="H1200" t="inlineStr"/>
+      <c r="I1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours']</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr"/>
+      <c r="C1201" t="inlineStr"/>
+      <c r="D1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr"/>
+      <c r="F1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr"/>
+      <c r="H1201" t="inlineStr"/>
+      <c r="I1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr"/>
+      <c r="C1202" t="inlineStr"/>
+      <c r="D1202" t="inlineStr"/>
+      <c r="E1202" t="inlineStr"/>
+      <c r="F1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr"/>
+      <c r="H1202" t="inlineStr"/>
+      <c r="I1202" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
